--- a/AEC_Jason_ProjectStatistics.xlsx
+++ b/AEC_Jason_ProjectStatistics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ALS人体冷却灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>J97N009</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,14 +361,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防爆直板-灯</t>
+    <t>安全帽鼓风机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防爆直板灯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,17 +668,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="60% - 强调文字颜色 1" xfId="2" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="4" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="5" builtinId="40"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="7" builtinId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="9" builtinId="48"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="10" builtinId="52"/>
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - 着色 3" xfId="5" builtinId="40"/>
+    <cellStyle name="60% - 着色 4" xfId="7" builtinId="44"/>
+    <cellStyle name="60% - 着色 5" xfId="9" builtinId="48"/>
+    <cellStyle name="60% - 着色 6" xfId="10" builtinId="52"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="强调文字颜色 2" xfId="3" builtinId="33"/>
-    <cellStyle name="强调文字颜色 4" xfId="6" builtinId="41"/>
-    <cellStyle name="强调文字颜色 5" xfId="8" builtinId="45"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 2" xfId="3" builtinId="33"/>
+    <cellStyle name="着色 4" xfId="6" builtinId="41"/>
+    <cellStyle name="着色 5" xfId="8" builtinId="45"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -1017,12 +1017,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:K901" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="60% - 强调文字颜色 6" dataCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:K901" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="常规">
   <autoFilter ref="A1:K901"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Proj.Number" dataDxfId="16" dataCellStyle="常规"/>
@@ -1042,7 +1045,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="L1:L473" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="强调文字颜色 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="L1:L473" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="L1:L473"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Project.Leader" dataDxfId="0"/>
@@ -1094,7 +1097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,7 +1132,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1641,10 +1644,10 @@
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C10" s="24">
         <v>10806810</v>
@@ -1672,63 +1675,63 @@
         <v>67</v>
       </c>
       <c r="L10" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="H11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="H12" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
